--- a/Complete-spreadsheets/EC/Fz-list-EC.xlsx
+++ b/Complete-spreadsheets/EC/Fz-list-EC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2926884-AF9D-4CDC-8740-A7B78C1F62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AFB3DD-89E9-4044-93DC-6A3913383485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,23 +496,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>18.333959309279059</v>
-      </c>
-      <c r="C2" s="3">
-        <v>23.972882751907861</v>
-      </c>
-      <c r="D2" s="3">
-        <v>18.239155699361341</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.265969704773994</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.5869917468251931</v>
+      <c r="B2" s="4">
+        <v>40.413623999882937</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.9093195003821322</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5.9383337870782498</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.9524448899926146</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.1432267360715418</v>
       </c>
       <c r="G2">
-        <v>66.398959212147446</v>
+        <v>63.356948913407479</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -534,23 +534,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>18.892572186365161</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7.1816757821506636</v>
-      </c>
-      <c r="D3" s="3">
-        <v>15.716593129695861</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5.355839022604628</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.0206469030420142</v>
+      <c r="B3" s="4">
+        <v>11.968000244397141</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9.6852369554348314</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10.39408386313311</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.7781643365870878</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.5183422581616242</v>
       </c>
       <c r="G3">
-        <v>49.167327023858327</v>
+        <v>38.343827657713788</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -573,22 +573,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>40.413623999882937</v>
+        <v>112.6052290895706</v>
       </c>
       <c r="C4" s="4">
-        <v>9.9093195003821322</v>
+        <v>31.76567015145239</v>
       </c>
       <c r="D4" s="4">
-        <v>5.9383337870782498</v>
+        <v>19.76984296621907</v>
       </c>
       <c r="E4" s="4">
-        <v>4.9524448899926146</v>
+        <v>5.4019168690571329</v>
       </c>
       <c r="F4" s="4">
-        <v>2.1432267360715418</v>
+        <v>2.6212719754802869</v>
       </c>
       <c r="G4">
-        <v>63.356948913407479</v>
+        <v>172.16393105177951</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -610,23 +610,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>16.038965583051109</v>
-      </c>
-      <c r="C5" s="3">
-        <v>25.503093117142061</v>
-      </c>
-      <c r="D5" s="3">
-        <v>19.25442154418867</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4.1952522371325358</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.2407398008541688</v>
+      <c r="B5" s="4">
+        <v>52.603944394829149</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12.840587415725411</v>
+      </c>
+      <c r="D5" s="4">
+        <v>18.363245322156391</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.80533256354687</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.622079838498482</v>
       </c>
       <c r="G5">
-        <v>67.232472282368548</v>
+        <v>90.235189534756287</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
@@ -649,22 +649,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>11.968000244397141</v>
+        <v>21.90501818461593</v>
       </c>
       <c r="C6" s="4">
-        <v>9.6852369554348314</v>
+        <v>11.525643960556909</v>
       </c>
       <c r="D6" s="4">
-        <v>10.39408386313311</v>
+        <v>7.3090393693594926</v>
       </c>
       <c r="E6" s="4">
-        <v>3.7781643365870878</v>
+        <v>3.616341032515177</v>
       </c>
       <c r="F6" s="4">
-        <v>2.5183422581616242</v>
+        <v>2.6629529861161259</v>
       </c>
       <c r="G6">
-        <v>38.343827657713788</v>
+        <v>47.018995533163633</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -687,22 +687,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>112.6052290895706</v>
+        <v>5.5093919176890234</v>
       </c>
       <c r="C7" s="4">
-        <v>31.76567015145239</v>
+        <v>48.080501954451293</v>
       </c>
       <c r="D7" s="4">
-        <v>19.76984296621907</v>
+        <v>2.4720625401716392</v>
       </c>
       <c r="E7" s="4">
-        <v>5.4019168690571329</v>
+        <v>3.282314731599719</v>
       </c>
       <c r="F7" s="4">
-        <v>2.6212719754802869</v>
+        <v>2.7419030120211252</v>
       </c>
       <c r="G7">
-        <v>172.16393105177951</v>
+        <v>62.08617415593281</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -728,22 +728,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>52.603944394829149</v>
+        <v>5.4703625167417984</v>
       </c>
       <c r="C8" s="4">
-        <v>12.840587415725411</v>
+        <v>43.505160827726009</v>
       </c>
       <c r="D8" s="4">
-        <v>18.363245322156391</v>
+        <v>17.489887815593988</v>
       </c>
       <c r="E8" s="4">
-        <v>3.80533256354687</v>
+        <v>4.9113205655878591</v>
       </c>
       <c r="F8" s="4">
-        <v>2.622079838498482</v>
+        <v>2.7520106135595719</v>
       </c>
       <c r="G8">
-        <v>90.235189534756287</v>
+        <v>74.128742339209225</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -766,22 +766,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>21.90501818461593</v>
+        <v>14.70229467945008</v>
       </c>
       <c r="C9" s="4">
-        <v>11.525643960556909</v>
+        <v>59.994309973934953</v>
       </c>
       <c r="D9" s="4">
-        <v>7.3090393693594926</v>
+        <v>3.274009567808537</v>
       </c>
       <c r="E9" s="4">
-        <v>3.616341032515177</v>
+        <v>4.9492191862102217</v>
       </c>
       <c r="F9" s="4">
-        <v>2.6629529861161259</v>
+        <v>2.882200262177339</v>
       </c>
       <c r="G9">
-        <v>47.018995533163633</v>
+        <v>85.802033669581135</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -804,22 +804,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>5.5093919176890234</v>
+        <v>29.014958633428211</v>
       </c>
       <c r="C10" s="4">
-        <v>48.080501954451293</v>
+        <v>13.655939255035291</v>
       </c>
       <c r="D10" s="4">
-        <v>2.4720625401716392</v>
+        <v>12.216340422081251</v>
       </c>
       <c r="E10" s="4">
-        <v>3.282314731599719</v>
+        <v>4.474666455402585</v>
       </c>
       <c r="F10" s="4">
-        <v>2.7419030120211252</v>
+        <v>3.324211138750822</v>
       </c>
       <c r="G10">
-        <v>62.08617415593281</v>
+        <v>62.686115904698148</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -842,22 +842,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>5.4703625167417984</v>
+        <v>28.653437428263292</v>
       </c>
       <c r="C11" s="4">
-        <v>43.505160827726009</v>
+        <v>20.74362495988294</v>
       </c>
       <c r="D11" s="4">
-        <v>17.489887815593988</v>
+        <v>76.810362297554903</v>
       </c>
       <c r="E11" s="4">
-        <v>4.9113205655878591</v>
+        <v>8.9328623738490247</v>
       </c>
       <c r="F11" s="4">
-        <v>2.7520106135595719</v>
+        <v>3.373893239639234</v>
       </c>
       <c r="G11">
-        <v>74.128742339209225</v>
+        <v>138.51418029918941</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -879,23 +879,23 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>21.21113392278664</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7.6146539416327617</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2.896223508986326</v>
-      </c>
-      <c r="E12" s="3">
-        <v>7.7921746186866807</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2.8328848149401908</v>
+      <c r="B12" s="4">
+        <v>8.2162332624923877</v>
+      </c>
+      <c r="C12" s="4">
+        <v>60.78571601409778</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.9235335423698339</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.061861596181263</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.4639744795874701</v>
       </c>
       <c r="G12">
-        <v>42.347070807032608</v>
+        <v>80.451318894728701</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>17</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -918,22 +918,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>14.70229467945008</v>
+        <v>37.957696945653453</v>
       </c>
       <c r="C13" s="4">
-        <v>59.994309973934953</v>
+        <v>33.1518082021596</v>
       </c>
       <c r="D13" s="4">
-        <v>3.274009567808537</v>
+        <v>64.25101924098459</v>
       </c>
       <c r="E13" s="4">
-        <v>4.9492191862102217</v>
+        <v>6.8776559950715601</v>
       </c>
       <c r="F13" s="4">
-        <v>2.882200262177339</v>
+        <v>3.542880573929799</v>
       </c>
       <c r="G13">
-        <v>85.802033669581135</v>
+        <v>145.78106095779901</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -955,23 +955,23 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
-        <v>8.604533876333047</v>
-      </c>
-      <c r="C14" s="3">
-        <v>9.8574541951209813</v>
-      </c>
-      <c r="D14" s="3">
-        <v>9.2944277815176726</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.4370837065041346</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3.1166416915609179</v>
+      <c r="B14" s="4">
+        <v>104.35420161731641</v>
+      </c>
+      <c r="C14" s="4">
+        <v>15.466965250396591</v>
+      </c>
+      <c r="D14" s="4">
+        <v>34.020233332170577</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6.627029467203819</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3.770312991658793</v>
       </c>
       <c r="G14">
-        <v>35.310141251036747</v>
+        <v>164.23874265874619</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
@@ -993,23 +993,23 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
-        <v>16.40065444514283</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10.1978866809477</v>
-      </c>
-      <c r="D15" s="3">
-        <v>9.965651540558417</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5.7414769733448283</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3.3060553988782422</v>
+      <c r="B15" s="4">
+        <v>33.981931617107847</v>
+      </c>
+      <c r="C15" s="4">
+        <v>146.53855310867621</v>
+      </c>
+      <c r="D15" s="4">
+        <v>52.189822974434243</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8.2278884169703073</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4.3255701052437896</v>
       </c>
       <c r="G15">
-        <v>45.611725038872009</v>
+        <v>245.26376622243251</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>12</v>
@@ -1032,22 +1032,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>29.014958633428211</v>
+        <v>9.0921230331212399</v>
       </c>
       <c r="C16" s="4">
-        <v>13.655939255035291</v>
+        <v>63.422715978375187</v>
       </c>
       <c r="D16" s="4">
-        <v>12.216340422081251</v>
+        <v>21.62191706098557</v>
       </c>
       <c r="E16" s="4">
-        <v>4.474666455402585</v>
+        <v>7.5608072101077344</v>
       </c>
       <c r="F16" s="4">
-        <v>3.324211138750822</v>
+        <v>4.3482002955881569</v>
       </c>
       <c r="G16">
-        <v>62.686115904698148</v>
+        <v>106.0457635781779</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1070,22 +1070,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>28.653437428263292</v>
+        <v>56.41532783545064</v>
       </c>
       <c r="C17" s="4">
-        <v>20.74362495988294</v>
+        <v>15.04551730374364</v>
       </c>
       <c r="D17" s="4">
-        <v>76.810362297554903</v>
+        <v>15.88768676838578</v>
       </c>
       <c r="E17" s="4">
-        <v>8.9328623738490247</v>
+        <v>10.178686488560411</v>
       </c>
       <c r="F17" s="4">
-        <v>3.373893239639234</v>
+        <v>4.7372025484601856</v>
       </c>
       <c r="G17">
-        <v>138.51418029918941</v>
+        <v>102.2644209446007</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1108,22 +1108,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>8.2162332624923877</v>
+        <v>15.666107357819209</v>
       </c>
       <c r="C18" s="4">
-        <v>60.78571601409778</v>
+        <v>140.8371935642372</v>
       </c>
       <c r="D18" s="4">
-        <v>3.9235335423698339</v>
+        <v>36.407821461804161</v>
       </c>
       <c r="E18" s="4">
-        <v>4.061861596181263</v>
+        <v>7.0240918140004291</v>
       </c>
       <c r="F18" s="4">
-        <v>3.4639744795874701</v>
+        <v>5.4434224687519839</v>
       </c>
       <c r="G18">
-        <v>80.451318894728701</v>
+        <v>205.37863666661309</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1146,22 +1146,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>37.957696945653453</v>
+        <v>47.08694230455302</v>
       </c>
       <c r="C19" s="4">
-        <v>33.1518082021596</v>
+        <v>31.601684398098829</v>
       </c>
       <c r="D19" s="4">
-        <v>64.25101924098459</v>
+        <v>80.569699097757677</v>
       </c>
       <c r="E19" s="4">
-        <v>6.8776559950715601</v>
+        <v>14.5777399052324</v>
       </c>
       <c r="F19" s="4">
-        <v>3.542880573929799</v>
+        <v>5.5576696602984494</v>
       </c>
       <c r="G19">
-        <v>145.78106095779901</v>
+        <v>179.39373536594039</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1183,23 +1183,23 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
-        <v>13.92663546499969</v>
-      </c>
-      <c r="C20" s="3">
-        <v>7.1404638989137839</v>
-      </c>
-      <c r="D20" s="3">
-        <v>19.177143964877779</v>
-      </c>
-      <c r="E20" s="3">
-        <v>6.6358386726821799</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3.749329200519516</v>
+      <c r="B20" s="4">
+        <v>194.45031417342051</v>
+      </c>
+      <c r="C20" s="4">
+        <v>397.09093756450739</v>
+      </c>
+      <c r="D20" s="4">
+        <v>12.082000006656941</v>
+      </c>
+      <c r="E20" s="4">
+        <v>7.6160491457971711</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5.7112539602341492</v>
       </c>
       <c r="G20">
-        <v>50.629411201992959</v>
+        <v>616.95055485061607</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1208,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -1222,22 +1222,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>104.35420161731641</v>
+        <v>8.0002582868115208</v>
       </c>
       <c r="C21" s="4">
-        <v>15.466965250396591</v>
+        <v>96.580938365881551</v>
       </c>
       <c r="D21" s="4">
-        <v>34.020233332170577</v>
+        <v>25.367079689751151</v>
       </c>
       <c r="E21" s="4">
-        <v>6.627029467203819</v>
+        <v>7.505082886188629</v>
       </c>
       <c r="F21" s="4">
-        <v>3.770312991658793</v>
+        <v>6.7832139497230823</v>
       </c>
       <c r="G21">
-        <v>164.23874265874619</v>
+        <v>144.23657317835591</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1259,23 +1259,23 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>23.123191484985291</v>
-      </c>
-      <c r="C22" s="3">
-        <v>28.966566902681642</v>
-      </c>
-      <c r="D22" s="3">
-        <v>128.78071092559821</v>
-      </c>
-      <c r="E22" s="3">
-        <v>12.93968839380171</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3.9661533301009189</v>
+      <c r="B22" s="4">
+        <v>11.60878205115254</v>
+      </c>
+      <c r="C22" s="4">
+        <v>149.99160785410041</v>
+      </c>
+      <c r="D22" s="4">
+        <v>30.75879643044755</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7.9295680383965443</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10.512743913952731</v>
       </c>
       <c r="G22">
-        <v>197.77631103716769</v>
+        <v>210.80149828804969</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -1297,23 +1297,23 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>31.017155175050231</v>
-      </c>
-      <c r="C23" s="3">
-        <v>66.402381700423959</v>
-      </c>
-      <c r="D23" s="3">
-        <v>30.007295467561381</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5.5427634516750546</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4.0060463156838644</v>
+      <c r="B23" s="4">
+        <v>1967.7680676172349</v>
+      </c>
+      <c r="C23" s="4">
+        <v>257.77398406220408</v>
+      </c>
+      <c r="D23" s="4">
+        <v>111.20915990665149</v>
+      </c>
+      <c r="E23" s="4">
+        <v>50.519247715097833</v>
+      </c>
+      <c r="F23" s="4">
+        <v>18.608184485772199</v>
       </c>
       <c r="G23">
-        <v>136.97564211039449</v>
+        <v>2405.8786437869599</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1322,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -1336,22 +1336,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>29.561262654961109</v>
+        <v>18.333959309279059</v>
       </c>
       <c r="C24" s="3">
-        <v>42.628221584535467</v>
+        <v>23.972882751907861</v>
       </c>
       <c r="D24" s="3">
-        <v>123.11486773227369</v>
+        <v>18.239155699361341</v>
       </c>
       <c r="E24" s="3">
-        <v>12.706417711075501</v>
+        <v>4.265969704773994</v>
       </c>
       <c r="F24" s="3">
-        <v>4.1361089727051628</v>
+        <v>1.5869917468251931</v>
       </c>
       <c r="G24">
-        <v>212.14687865555101</v>
+        <v>66.398959212147446</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -1373,23 +1373,23 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="4">
-        <v>33.981931617107847</v>
-      </c>
-      <c r="C25" s="4">
-        <v>146.53855310867621</v>
-      </c>
-      <c r="D25" s="4">
-        <v>52.189822974434243</v>
-      </c>
-      <c r="E25" s="4">
-        <v>8.2278884169703073</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4.3255701052437896</v>
+      <c r="B25" s="3">
+        <v>18.892572186365161</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7.1816757821506636</v>
+      </c>
+      <c r="D25" s="3">
+        <v>15.716593129695861</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5.355839022604628</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.0206469030420142</v>
       </c>
       <c r="G25">
-        <v>245.26376622243251</v>
+        <v>49.167327023858327</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>20</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>12</v>
@@ -1412,22 +1412,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>8.5908557223105397</v>
+        <v>16.038965583051109</v>
       </c>
       <c r="C26" s="3">
-        <v>5.305613273270497</v>
+        <v>25.503093117142061</v>
       </c>
       <c r="D26" s="3">
-        <v>18.432630283873511</v>
+        <v>19.25442154418867</v>
       </c>
       <c r="E26" s="3">
-        <v>12.223008083502441</v>
+        <v>4.1952522371325358</v>
       </c>
       <c r="F26" s="3">
-        <v>4.3314135663279032</v>
+        <v>2.2407398008541688</v>
       </c>
       <c r="G26">
-        <v>48.883520929284899</v>
+        <v>67.232472282368548</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -1449,23 +1449,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>9.0921230331212399</v>
-      </c>
-      <c r="C27" s="4">
-        <v>63.422715978375187</v>
-      </c>
-      <c r="D27" s="4">
-        <v>21.62191706098557</v>
-      </c>
-      <c r="E27" s="4">
-        <v>7.5608072101077344</v>
-      </c>
-      <c r="F27" s="4">
-        <v>4.3482002955881569</v>
+      <c r="B27" s="3">
+        <v>21.21113392278664</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7.6146539416327617</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2.896223508986326</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7.7921746186866807</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.8328848149401908</v>
       </c>
       <c r="G27">
-        <v>106.0457635781779</v>
+        <v>42.347070807032608</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1474,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>13</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -1488,22 +1488,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="3">
-        <v>15.90485432328904</v>
+        <v>8.604533876333047</v>
       </c>
       <c r="C28" s="3">
-        <v>8.5464671104241479</v>
+        <v>9.8574541951209813</v>
       </c>
       <c r="D28" s="3">
-        <v>29.942335814082849</v>
+        <v>9.2944277815176726</v>
       </c>
       <c r="E28" s="3">
-        <v>11.801470890014819</v>
+        <v>4.4370837065041346</v>
       </c>
       <c r="F28" s="3">
-        <v>4.4092757804537293</v>
+        <v>3.1166416915609179</v>
       </c>
       <c r="G28">
-        <v>70.60440391826458</v>
+        <v>35.310141251036747</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -1525,23 +1525,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>56.41532783545064</v>
-      </c>
-      <c r="C29" s="4">
-        <v>15.04551730374364</v>
-      </c>
-      <c r="D29" s="4">
-        <v>15.88768676838578</v>
-      </c>
-      <c r="E29" s="4">
-        <v>10.178686488560411</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4.7372025484601856</v>
+      <c r="B29" s="3">
+        <v>16.40065444514283</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10.1978866809477</v>
+      </c>
+      <c r="D29" s="3">
+        <v>9.965651540558417</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5.7414769733448283</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3.3060553988782422</v>
       </c>
       <c r="G29">
-        <v>102.2644209446007</v>
+        <v>45.611725038872009</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1550,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -1564,22 +1564,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>42.880850414325529</v>
+        <v>13.92663546499969</v>
       </c>
       <c r="C30" s="3">
-        <v>8.544018810396576</v>
+        <v>7.1404638989137839</v>
       </c>
       <c r="D30" s="3">
-        <v>7.0371680743571297</v>
+        <v>19.177143964877779</v>
       </c>
       <c r="E30" s="3">
-        <v>6.9681475373672903</v>
+        <v>6.6358386726821799</v>
       </c>
       <c r="F30" s="3">
-        <v>4.8041653256674772</v>
+        <v>3.749329200519516</v>
       </c>
       <c r="G30">
-        <v>70.234350162113984</v>
+        <v>50.629411201992959</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1602,22 +1602,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>14.87873608202062</v>
+        <v>23.123191484985291</v>
       </c>
       <c r="C31" s="3">
-        <v>12.673805299263149</v>
+        <v>28.966566902681642</v>
       </c>
       <c r="D31" s="3">
-        <v>26.60745349804948</v>
+        <v>128.78071092559821</v>
       </c>
       <c r="E31" s="3">
-        <v>6.7497971392256746</v>
+        <v>12.93968839380171</v>
       </c>
       <c r="F31" s="3">
-        <v>4.8999549508110034</v>
+        <v>3.9661533301009189</v>
       </c>
       <c r="G31">
-        <v>65.809746969369954</v>
+        <v>197.77631103716769</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1640,22 +1640,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>10.716913307559301</v>
+        <v>31.017155175050231</v>
       </c>
       <c r="C32" s="3">
-        <v>19.296014209582811</v>
+        <v>66.402381700423959</v>
       </c>
       <c r="D32" s="3">
-        <v>61.829203813640227</v>
+        <v>30.007295467561381</v>
       </c>
       <c r="E32" s="3">
-        <v>19.443539139273511</v>
+        <v>5.5427634516750546</v>
       </c>
       <c r="F32" s="3">
-        <v>5.0459453077825023</v>
+        <v>4.0060463156838644</v>
       </c>
       <c r="G32">
-        <v>116.33161577783829</v>
+        <v>136.97564211039449</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1678,22 +1678,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>376.59064096034251</v>
+        <v>29.561262654961109</v>
       </c>
       <c r="C33" s="3">
-        <v>94.8659896107077</v>
+        <v>42.628221584535467</v>
       </c>
       <c r="D33" s="3">
-        <v>29.66677882291879</v>
+        <v>123.11486773227369</v>
       </c>
       <c r="E33" s="3">
-        <v>12.772363054733431</v>
+        <v>12.706417711075501</v>
       </c>
       <c r="F33" s="3">
-        <v>5.4041939480401604</v>
+        <v>4.1361089727051628</v>
       </c>
       <c r="G33">
-        <v>519.29996639674232</v>
+        <v>212.14687865555101</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1715,23 +1715,23 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4">
-        <v>15.666107357819209</v>
-      </c>
-      <c r="C34" s="4">
-        <v>140.8371935642372</v>
-      </c>
-      <c r="D34" s="4">
-        <v>36.407821461804161</v>
-      </c>
-      <c r="E34" s="4">
-        <v>7.0240918140004291</v>
-      </c>
-      <c r="F34" s="4">
-        <v>5.4434224687519839</v>
+      <c r="B34" s="3">
+        <v>8.5908557223105397</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5.305613273270497</v>
+      </c>
+      <c r="D34" s="3">
+        <v>18.432630283873511</v>
+      </c>
+      <c r="E34" s="3">
+        <v>12.223008083502441</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4.3314135663279032</v>
       </c>
       <c r="G34">
-        <v>205.37863666661309</v>
+        <v>48.883520929284899</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1740,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>24</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>12</v>
@@ -1753,23 +1753,23 @@
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="4">
-        <v>47.08694230455302</v>
-      </c>
-      <c r="C35" s="4">
-        <v>31.601684398098829</v>
-      </c>
-      <c r="D35" s="4">
-        <v>80.569699097757677</v>
-      </c>
-      <c r="E35" s="4">
-        <v>14.5777399052324</v>
-      </c>
-      <c r="F35" s="4">
-        <v>5.5576696602984494</v>
+      <c r="B35" s="3">
+        <v>15.90485432328904</v>
+      </c>
+      <c r="C35" s="3">
+        <v>8.5464671104241479</v>
+      </c>
+      <c r="D35" s="3">
+        <v>29.942335814082849</v>
+      </c>
+      <c r="E35" s="3">
+        <v>11.801470890014819</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4.4092757804537293</v>
       </c>
       <c r="G35">
-        <v>179.39373536594039</v>
+        <v>70.60440391826458</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1778,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>11</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
       </c>
       <c r="L35" t="s">
         <v>12</v>
@@ -1791,23 +1791,23 @@
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="4">
-        <v>194.45031417342051</v>
-      </c>
-      <c r="C36" s="4">
-        <v>397.09093756450739</v>
-      </c>
-      <c r="D36" s="4">
-        <v>12.082000006656941</v>
-      </c>
-      <c r="E36" s="4">
-        <v>7.6160491457971711</v>
-      </c>
-      <c r="F36" s="4">
-        <v>5.7112539602341492</v>
+      <c r="B36" s="3">
+        <v>42.880850414325529</v>
+      </c>
+      <c r="C36" s="3">
+        <v>8.544018810396576</v>
+      </c>
+      <c r="D36" s="3">
+        <v>7.0371680743571297</v>
+      </c>
+      <c r="E36" s="3">
+        <v>6.9681475373672903</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4.8041653256674772</v>
       </c>
       <c r="G36">
-        <v>616.95055485061607</v>
+        <v>70.234350162113984</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>9</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
       </c>
       <c r="L36" t="s">
         <v>12</v>
@@ -1830,22 +1830,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>18.415545241107349</v>
+        <v>14.87873608202062</v>
       </c>
       <c r="C37" s="3">
-        <v>11.71471123100401</v>
+        <v>12.673805299263149</v>
       </c>
       <c r="D37" s="3">
-        <v>13.1656065324342</v>
+        <v>26.60745349804948</v>
       </c>
       <c r="E37" s="3">
-        <v>12.96511129207353</v>
+        <v>6.7497971392256746</v>
       </c>
       <c r="F37" s="3">
-        <v>5.7603437856879056</v>
+        <v>4.8999549508110034</v>
       </c>
       <c r="G37">
-        <v>62.021318082306991</v>
+        <v>65.809746969369954</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1868,22 +1868,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>162.33640073864581</v>
+        <v>10.716913307559301</v>
       </c>
       <c r="C38" s="3">
-        <v>42.47398346588475</v>
+        <v>19.296014209582811</v>
       </c>
       <c r="D38" s="3">
-        <v>15.96255614171357</v>
+        <v>61.829203813640227</v>
       </c>
       <c r="E38" s="3">
-        <v>10.664513292254661</v>
+        <v>19.443539139273511</v>
       </c>
       <c r="F38" s="3">
-        <v>6.5348768345100199</v>
+        <v>5.0459453077825023</v>
       </c>
       <c r="G38">
-        <v>237.97233047300881</v>
+        <v>116.33161577783829</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1905,23 +1905,23 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="4">
-        <v>8.0002582868115208</v>
-      </c>
-      <c r="C39" s="4">
-        <v>96.580938365881551</v>
-      </c>
-      <c r="D39" s="4">
-        <v>25.367079689751151</v>
-      </c>
-      <c r="E39" s="4">
-        <v>7.505082886188629</v>
-      </c>
-      <c r="F39" s="4">
-        <v>6.7832139497230823</v>
+      <c r="B39" s="3">
+        <v>376.59064096034251</v>
+      </c>
+      <c r="C39" s="3">
+        <v>94.8659896107077</v>
+      </c>
+      <c r="D39" s="3">
+        <v>29.66677882291879</v>
+      </c>
+      <c r="E39" s="3">
+        <v>12.772363054733431</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5.4041939480401604</v>
       </c>
       <c r="G39">
-        <v>144.23657317835591</v>
+        <v>519.29996639674232</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1930,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>6</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -1944,22 +1944,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>36.109276257980113</v>
+        <v>18.415545241107349</v>
       </c>
       <c r="C40" s="3">
-        <v>20.223574654390429</v>
+        <v>11.71471123100401</v>
       </c>
       <c r="D40" s="3">
-        <v>12.597202512621481</v>
+        <v>13.1656065324342</v>
       </c>
       <c r="E40" s="3">
-        <v>9.5724389997561996</v>
+        <v>12.96511129207353</v>
       </c>
       <c r="F40" s="3">
-        <v>6.8137524321666394</v>
+        <v>5.7603437856879056</v>
       </c>
       <c r="G40">
-        <v>85.316244856914835</v>
+        <v>62.021318082306991</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1982,22 +1982,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>198.48570539106601</v>
+        <v>162.33640073864581</v>
       </c>
       <c r="C41" s="3">
-        <v>14.7754031999844</v>
+        <v>42.47398346588475</v>
       </c>
       <c r="D41" s="3">
-        <v>58.916620996719992</v>
+        <v>15.96255614171357</v>
       </c>
       <c r="E41" s="3">
-        <v>19.269440894249239</v>
+        <v>10.664513292254661</v>
       </c>
       <c r="F41" s="3">
-        <v>9.7322806012992906</v>
+        <v>6.5348768345100199</v>
       </c>
       <c r="G41">
-        <v>301.17945108331901</v>
+        <v>237.97233047300881</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2019,23 +2019,23 @@
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="4">
-        <v>11.60878205115254</v>
-      </c>
-      <c r="C42" s="4">
-        <v>149.99160785410041</v>
-      </c>
-      <c r="D42" s="4">
-        <v>30.75879643044755</v>
-      </c>
-      <c r="E42" s="4">
-        <v>7.9295680383965443</v>
-      </c>
-      <c r="F42" s="4">
-        <v>10.512743913952731</v>
+      <c r="B42" s="3">
+        <v>36.109276257980113</v>
+      </c>
+      <c r="C42" s="3">
+        <v>20.223574654390429</v>
+      </c>
+      <c r="D42" s="3">
+        <v>12.597202512621481</v>
+      </c>
+      <c r="E42" s="3">
+        <v>9.5724389997561996</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6.8137524321666394</v>
       </c>
       <c r="G42">
-        <v>210.80149828804969</v>
+        <v>85.316244856914835</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>19</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>12</v>
@@ -2058,22 +2058,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>1624.381491873864</v>
+        <v>198.48570539106601</v>
       </c>
       <c r="C43" s="3">
-        <v>281.50971721991829</v>
+        <v>14.7754031999844</v>
       </c>
       <c r="D43" s="3">
-        <v>43.762421765543387</v>
+        <v>58.916620996719992</v>
       </c>
       <c r="E43" s="3">
-        <v>22.09744363260808</v>
+        <v>19.269440894249239</v>
       </c>
       <c r="F43" s="3">
-        <v>11.178717561529989</v>
+        <v>9.7322806012992906</v>
       </c>
       <c r="G43">
-        <v>1982.929792053463</v>
+        <v>301.17945108331901</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2096,22 +2096,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>16.829548346588581</v>
+        <v>1624.381491873864</v>
       </c>
       <c r="C44" s="3">
-        <v>8.4395017318649863</v>
+        <v>281.50971721991829</v>
       </c>
       <c r="D44" s="3">
-        <v>8.2198903231426517</v>
+        <v>43.762421765543387</v>
       </c>
       <c r="E44" s="3">
-        <v>17.846005988731459</v>
+        <v>22.09744363260808</v>
       </c>
       <c r="F44" s="3">
-        <v>11.36120372862244</v>
+        <v>11.178717561529989</v>
       </c>
       <c r="G44">
-        <v>62.696150118950108</v>
+        <v>1982.929792053463</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2134,22 +2134,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>21.418052144107431</v>
+        <v>16.829548346588581</v>
       </c>
       <c r="C45" s="3">
-        <v>46.095162101639289</v>
+        <v>8.4395017318649863</v>
       </c>
       <c r="D45" s="3">
-        <v>14.85546526992416</v>
+        <v>8.2198903231426517</v>
       </c>
       <c r="E45" s="3">
-        <v>13.33381547773944</v>
+        <v>17.846005988731459</v>
       </c>
       <c r="F45" s="3">
-        <v>15.9982138551249</v>
+        <v>11.36120372862244</v>
       </c>
       <c r="G45">
-        <v>111.7007088485352</v>
+        <v>62.696150118950108</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2171,23 +2171,23 @@
       <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="4">
-        <v>1967.7680676172349</v>
-      </c>
-      <c r="C46" s="4">
-        <v>257.77398406220408</v>
-      </c>
-      <c r="D46" s="4">
-        <v>111.20915990665149</v>
-      </c>
-      <c r="E46" s="4">
-        <v>50.519247715097833</v>
-      </c>
-      <c r="F46" s="4">
-        <v>18.608184485772199</v>
+      <c r="B46" s="3">
+        <v>21.418052144107431</v>
+      </c>
+      <c r="C46" s="3">
+        <v>46.095162101639289</v>
+      </c>
+      <c r="D46" s="3">
+        <v>14.85546526992416</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13.33381547773944</v>
+      </c>
+      <c r="F46" s="3">
+        <v>15.9982138551249</v>
       </c>
       <c r="G46">
-        <v>2405.8786437869599</v>
+        <v>111.7007088485352</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>21</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>12</v>
@@ -2244,8 +2244,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
-    <sortCondition ref="F2:F51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
+    <sortCondition ref="K2:K47"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
